--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Biostats\homework\homework 3\p8130_hw3_rq2166\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D4D4D7-FFDC-47EE-B3BD-78DBF3F76DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEBC8B9-6A33-496D-BCFF-BA7D6E7A89D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9168" yWindow="1740" windowWidth="12384" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>IQR</t>
   </si>
@@ -217,6 +217,73 @@
   <si>
     <t>p-value</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGAN</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>46-396</t>
+  </si>
+  <si>
+    <t>25-1112</t>
+  </si>
+  <si>
+    <t>72-245</t>
+  </si>
+  <si>
+    <t>20-859</t>
+  </si>
+  <si>
+    <t>189-519</t>
+  </si>
+  <si>
+    <t>20-1843</t>
+  </si>
+  <si>
+    <t>239.75-1039.5</t>
+  </si>
+  <si>
+    <t>89-2970</t>
+  </si>
+  <si>
+    <t>723-1692.5</t>
+  </si>
+  <si>
+    <t>24-3808</t>
+  </si>
+  <si>
+    <t>ORGAN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 1 Discriptive statistics of each group</t>
   </si>
 </sst>
 </file>
@@ -224,9 +291,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +331,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFBCBCBC"/>
+      <name val="Lucida Console"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -334,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +464,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -671,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -682,7 +768,7 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -692,8 +778,30 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="9"/>
+      <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -703,8 +811,30 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>286</v>
+      </c>
+      <c r="I2" s="1">
+        <v>346</v>
+      </c>
+      <c r="J2" s="1">
+        <v>124</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -714,8 +844,32 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <v>212</v>
+      </c>
+      <c r="I3" s="1">
+        <v>210</v>
+      </c>
+      <c r="J3" s="1">
+        <v>155</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -725,8 +879,32 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="22">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>457</v>
+      </c>
+      <c r="I4" s="1">
+        <v>427</v>
+      </c>
+      <c r="J4" s="1">
+        <v>372</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -736,8 +914,32 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="22">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>884</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1099</v>
+      </c>
+      <c r="J5" s="1">
+        <v>406</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -747,8 +949,41 @@
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="E6" s="22">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1396</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1239</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1166</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="23">
+        <v>5</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -764,12 +999,11 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="6">
+        <v>2.2900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -785,11 +1019,18 @@
       <c r="E9" s="6">
         <v>6.4329999999999998</v>
       </c>
-      <c r="F9" s="6">
-        <v>2.2900000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+      <c r="I9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -803,9 +1044,30 @@
         <v>448274</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="8"/>
+      <c r="I10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -819,19 +1081,135 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1">
+        <v>286</v>
+      </c>
+      <c r="L11" s="1">
+        <v>346.31</v>
+      </c>
+      <c r="M11" s="1">
+        <v>124</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
+        <v>211.59</v>
+      </c>
+      <c r="L12" s="1">
+        <v>209.86</v>
+      </c>
+      <c r="M12" s="1">
+        <v>155</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1">
+        <v>457.41</v>
+      </c>
+      <c r="L13" s="1">
+        <v>427.17</v>
+      </c>
+      <c r="M13" s="1">
+        <v>372</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1">
+        <v>884.33</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1098.58</v>
+      </c>
+      <c r="M14" s="1">
+        <v>406</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2">
+        <v>11</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1395.91</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1238.97</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1166</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" t="s">
         <v>9</v>
@@ -840,13 +1218,13 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
         <v>3</v>
       </c>
@@ -863,7 +1241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
@@ -873,14 +1251,14 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>23</v>
+      <c r="F19">
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -893,11 +1271,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0.75283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
         <v>1</v>
       </c>
@@ -907,14 +1285,13 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.75283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -928,11 +1305,11 @@
       <c r="E25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F25" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -952,7 +1329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
@@ -972,7 +1349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -988,11 +1365,11 @@
       <c r="E28" s="13">
         <v>1</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F28" s="13">
+        <v>0.75283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
@@ -1008,11 +1385,8 @@
       <c r="E29" s="13">
         <v>1</v>
       </c>
-      <c r="F29" s="13">
-        <v>0.75283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>24</v>
       </c>
@@ -1020,7 +1394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
         <v>24</v>
       </c>
@@ -1029,6 +1403,19 @@
       </c>
       <c r="D32">
         <v>2.385E-4</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
@@ -1041,18 +1428,20 @@
       <c r="D33">
         <v>5.3071999999999998E-3</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>27</v>
+      <c r="G33" s="17">
+        <v>2.385E-4</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
@@ -1066,13 +1455,13 @@
         <v>0.56308999999999998</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G34" s="17">
-        <v>2.385E-4</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>23</v>
+        <v>5.3071999999999998E-3</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0.82084020000000002</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>23</v>
@@ -1092,16 +1481,16 @@
         <v>1.3962E-3</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G35" s="17">
-        <v>5.3071999999999998E-3</v>
+        <v>0.56308999999999998</v>
       </c>
       <c r="H35" s="17">
-        <v>0.82084020000000002</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>23</v>
+        <v>0.22710839999999999</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0.66591149999999999</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>23</v>
@@ -1118,19 +1507,19 @@
         <v>0.82084020000000002</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G36" s="17">
-        <v>0.56308999999999998</v>
+        <v>1.3962E-3</v>
       </c>
       <c r="H36" s="17">
-        <v>0.22710839999999999</v>
+        <v>0.99814610000000004</v>
       </c>
       <c r="I36" s="17">
-        <v>0.66591149999999999</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>23</v>
+        <v>0.95682889999999998</v>
+      </c>
+      <c r="J36" s="17">
+        <v>0.37729230000000002</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
@@ -1143,21 +1532,6 @@
       <c r="D37">
         <v>0.22710839999999999</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="17">
-        <v>1.3962E-3</v>
-      </c>
-      <c r="H37" s="17">
-        <v>0.99814610000000004</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0.95682889999999998</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0.37729230000000002</v>
-      </c>
     </row>
     <row r="38" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
@@ -1425,6 +1799,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I9:O9"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
